--- a/output/inference_results/test_sheets/batch_001/test_sheet (5).xlsx
+++ b/output/inference_results/test_sheets/batch_001/test_sheet (5).xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>μ mol/L</t>
+          <t>μmol/L</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AST/ALT</t>
+          <t>RDW-CV</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -662,7 +662,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Y谷氨酰转肽酶</t>
+          <t>γ谷氨酰转肽酶</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">

--- a/output/inference_results/test_sheets/batch_001/test_sheet (5).xlsx
+++ b/output/inference_results/test_sheets/batch_001/test_sheet (5).xlsx
@@ -636,6 +636,8 @@
           <t>0.7</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
